--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\CMS\pneumatic-press\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A301D569-8AF5-4EFD-B8C1-8E45E1E9DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F7DAE-6FFF-460D-8AAD-3F7969DABB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="7720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>DELUGE</t>
+  </si>
+  <si>
+    <t>dev5/port0/line30</t>
+  </si>
+  <si>
+    <t>IGNITOR</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +305,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1080,11 +1092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1290,12 +1302,26 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1303,6 +1329,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:U1"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NC,NO,norm_off,norm_on"</formula1>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F7DAE-6FFF-460D-8AAD-3F7969DABB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DEFA0D-D81F-471F-A553-01EFF86B1D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DEFA0D-D81F-471F-A553-01EFF86B1D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F7E29-7000-48EA-B8C5-AC5D0F838714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>SV-QD-02</t>
-  </si>
-  <si>
     <t>SV-QD-03</t>
   </si>
   <si>
@@ -143,10 +140,19 @@
     <t>DELUGE</t>
   </si>
   <si>
-    <t>dev5/port0/line30</t>
-  </si>
-  <si>
     <t>IGNITOR</t>
+  </si>
+  <si>
+    <t>SV-QD-01</t>
+  </si>
+  <si>
+    <t>dev5/port0/line26</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>dev5/port0/line29</t>
   </si>
 </sst>
 </file>
@@ -1092,11 +1098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1269,10 +1275,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -1284,10 +1290,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1299,10 +1305,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1310,18 +1316,33 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1331,10 +1352,10 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NC,NO,norm_off,norm_on"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Closed,Opened,on,off,close,open"</formula1>
     </dataValidation>
   </dataValidations>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F7E29-7000-48EA-B8C5-AC5D0F838714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89866539-EA36-46E0-9401-03556E25A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="733" yWindow="733" windowWidth="19200" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>dev5/port0/line29</t>
+  </si>
+  <si>
+    <t>ACTUATOR</t>
+  </si>
+  <si>
+    <t>dev5/port0/line28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1098,11 +1107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1334,16 +1343,35 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E17" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89866539-EA36-46E0-9401-03556E25A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B863C87-E211-4A74-938F-E7A59F658DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="733" yWindow="733" windowWidth="19200" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="19200" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>dev5/port0/line28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1107,11 +1104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1367,11 +1364,6 @@
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E17" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B863C87-E211-4A74-938F-E7A59F658DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3A751-EF5A-49A4-AE5C-5AE19F101351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="19200" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -149,9 +149,6 @@
     <t>dev5/port0/line26</t>
   </si>
   <si>
-    <t>CAMERA</t>
-  </si>
-  <si>
     <t>dev5/port0/line29</t>
   </si>
   <si>
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>dev5/port0/line28</t>
+  </si>
+  <si>
+    <t>dev5/port0/line30</t>
+  </si>
+  <si>
+    <t>Broken_1</t>
+  </si>
+  <si>
+    <t>Broken_2</t>
   </si>
 </sst>
 </file>
@@ -1104,25 +1110,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.41015625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.29296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.1171875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.87890625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5859375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1171875" style="4"/>
+    <col min="1" max="1" width="19.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1165,7 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1180,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1195,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1210,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1219,7 +1225,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1240,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1255,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1264,7 +1270,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1285,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1294,12 +1300,12 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -1324,7 +1330,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1338,12 +1344,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -1352,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1363,6 +1369,20 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1393,22 +1413,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.41015625" customWidth="1"/>
-    <col min="3" max="3" width="21.87890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.87890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5859375" customWidth="1"/>
-    <col min="10" max="10" width="32.1171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1171875" style="3"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1472,7 @@
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -1463,7 +1483,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1471,7 +1491,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1479,7 +1499,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1487,7 +1507,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1495,7 +1515,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1503,7 +1523,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1511,7 +1531,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1521,7 +1541,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1531,7 +1551,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1541,7 +1561,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1551,7 +1571,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1561,28 +1581,28 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3A751-EF5A-49A4-AE5C-5AE19F101351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365D8EFD-8D31-4ED8-BC7D-D7666BA3D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>SV-BP-01</t>
   </si>
   <si>
-    <t>SV-N2-02</t>
-  </si>
-  <si>
     <t>SV-HE-01</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Broken_2</t>
+  </si>
+  <si>
+    <t>SV-N2-01</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1203,10 +1203,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -1218,10 +1218,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365D8EFD-8D31-4ED8-BC7D-D7666BA3D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A9ED08-C61D-4498-AFA2-60D2B05CFDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>dev5/port0/line27</t>
   </si>
   <si>
-    <t>DELUGE</t>
-  </si>
-  <si>
     <t>IGNITOR</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>SV-N2-01</t>
+  </si>
+  <si>
+    <t>PV-WA-04</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1290,7 +1290,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A9ED08-C61D-4498-AFA2-60D2B05CFDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA799289-857E-46BB-A460-C56B53F713D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
     <t>SV-N2-01</t>
   </si>
   <si>
-    <t>PV-WA-04</t>
+    <t>DELUGE</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA799289-857E-46BB-A460-C56B53F713D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CAB7E-06AC-4591-9B19-CEAAD23195F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,27 +92,6 @@
     <t>dev5/port0/line17</t>
   </si>
   <si>
-    <t>PV-HE-01</t>
-  </si>
-  <si>
-    <t>PV-FU-02</t>
-  </si>
-  <si>
-    <t>PV-OX-02</t>
-  </si>
-  <si>
-    <t>PV-FU-03</t>
-  </si>
-  <si>
-    <t>PV-OX-03</t>
-  </si>
-  <si>
-    <t>SV-BP-01</t>
-  </si>
-  <si>
-    <t>SV-HE-01</t>
-  </si>
-  <si>
     <t>dev5/port0/line24</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>SV-QD-03</t>
-  </si>
-  <si>
     <t>dev5/port0/line31</t>
   </si>
   <si>
@@ -137,9 +113,6 @@
     <t>IGNITOR</t>
   </si>
   <si>
-    <t>SV-QD-01</t>
-  </si>
-  <si>
     <t>dev5/port0/line26</t>
   </si>
   <si>
@@ -161,10 +134,37 @@
     <t>Broken_2</t>
   </si>
   <si>
-    <t>SV-N2-01</t>
-  </si>
-  <si>
     <t>DELUGE</t>
+  </si>
+  <si>
+    <t>PV_FU_02</t>
+  </si>
+  <si>
+    <t>PV_OX_02</t>
+  </si>
+  <si>
+    <t>PV_FU_03</t>
+  </si>
+  <si>
+    <t>PV_OX_03</t>
+  </si>
+  <si>
+    <t>SV_BP_01</t>
+  </si>
+  <si>
+    <t>SV_N2_01</t>
+  </si>
+  <si>
+    <t>PV_HE_01</t>
+  </si>
+  <si>
+    <t>SV_HE_01</t>
+  </si>
+  <si>
+    <t>SV_QD_03</t>
+  </si>
+  <si>
+    <t>SV_QD_01</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1197,37 +1197,37 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CAB7E-06AC-4591-9B19-CEAAD23195F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61A0E3-B0E8-492C-89A3-4BC6EA8ABEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Broken_2</t>
   </si>
   <si>
-    <t>DELUGE</t>
-  </si>
-  <si>
     <t>PV_FU_02</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>SV_QD_01</t>
+  </si>
+  <si>
+    <t>PV_WA_04</t>
   </si>
 </sst>
 </file>
@@ -1114,21 +1114,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.73046875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.86328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="19.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1165,9 +1165,9 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1180,9 +1180,9 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1195,9 +1195,9 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1210,9 +1210,9 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1225,9 +1225,9 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1240,9 +1240,9 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1255,9 +1255,9 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1270,9 +1270,9 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1285,9 +1285,9 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1315,9 +1315,9 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1330,9 +1330,9 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1344,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1413,22 +1413,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" customWidth="1"/>
-    <col min="10" max="10" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" style="3"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -1483,7 +1483,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1499,7 +1499,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1515,7 +1515,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1531,7 +1531,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1541,7 +1541,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1561,7 +1561,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1571,7 +1571,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1581,28 +1581,28 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
   </sheetData>

--- a/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Master_Control_Wiring_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaso\Documents\DAQ\PSPL_DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61A0E3-B0E8-492C-89A3-4BC6EA8ABEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D235CAD8-9E25-44DF-B933-D839CF11AD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>SV_QD_01</t>
   </si>
   <si>
-    <t>PV_WA_04</t>
+    <t>SV_QD_02</t>
   </si>
 </sst>
 </file>
@@ -1114,21 +1114,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1413,22 +1413,22 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -1483,7 +1483,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1499,7 +1499,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1515,7 +1515,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1531,7 +1531,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1541,7 +1541,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1561,7 +1561,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1571,7 +1571,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1581,28 +1581,28 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
     </row>
   </sheetData>
